--- a/GameData/技能分配简表/特技/特技：不同武器熟练度对应默认技能列表.xlsx
+++ b/GameData/技能分配简表/特技/特技：不同武器熟练度对应默认技能列表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FE_Proj\FE8U-cSkillSystem\GameData\技能分配简表\特技\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FE_Proj\C-SkillSys-Demo\GameData\技能分配简表\特技\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8444D013-7689-427F-B5C3-3CEB2710BF85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1668070-9EE7-482A-A9AE-FA05EF84C90B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5240" yWindow="3880" windowWidth="16200" windowHeight="10510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1590" yWindow="3410" windowWidth="16200" windowHeight="10520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="89">
   <si>
     <t>E技能0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -882,6 +882,28 @@
   </si>
   <si>
     <t>鬼神架势</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF24292E"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>弓射程</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>+2</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1232,8 +1254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K4" sqref="G3:K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1435,6 +1457,9 @@
       <c r="W5" s="2" t="s">
         <v>66</v>
       </c>
+      <c r="X5" s="2" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
